--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R722b57059ada40b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rb76e8b8e83cb4d05"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rb76e8b8e83cb4d05"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rec5926b6df544b59"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rec5926b6df544b59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R5dd6eaaf7fd54ade"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R5dd6eaaf7fd54ade"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rfc58419d27ab4cf0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rfc58419d27ab4cf0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rc856446564424e86"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rc856446564424e86"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R12f01e90d42d4272"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R12f01e90d42d4272"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R4c125dde71df4213"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R4c125dde71df4213"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rf5f0acd3128d483e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rf5f0acd3128d483e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R8ca6620338a9416e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R8ca6620338a9416e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rf177e8b56a934904"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rf177e8b56a934904"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Reb3deace792b4ac6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,13 +29,13 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Reb3deace792b4ac6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0744ecd3acf94c3e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,13 +29,13 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/021_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0744ecd3acf94c3e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Ra0caa21e66af42aa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
